--- a/RICATTE_SUBLET.xlsx
+++ b/RICATTE_SUBLET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Clement\IUT\S2\IHM\Lazarus work\GestionScolaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2F882-423E-4B17-BCDA-9CDE2365DACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C0C4A-8E4D-4F26-8785-4A5B9A579BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>Est-ce que la sélection de l'item "Quitter" ferme l'application ?</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Est-ce que la zone de saisie du libellé court de la filière est en lecture seule ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Est-ce que les inscrits affichés sont uniquement les numéros 4 (PIROEL), 9 (GIRODI) et 26 (CHOLETAIS) ?</t>
@@ -1223,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1310,11 +1307,1335 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="195">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -2483,7 +3804,7 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2496,13 +3817,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2514,34 +3835,34 @@
     </row>
     <row r="5" spans="1:6" s="20" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:6" s="20" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="20" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="25"/>
@@ -2550,7 +3871,7 @@
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -2563,7 +3884,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,7 +3895,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,7 +3906,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,12 +3925,14 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2619,10 +3942,12 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -2637,10 +3962,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -2649,7 +3976,9 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -2658,11 +3987,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -2672,11 +4003,13 @@
     <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -2687,7 +4020,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2701,52 +4034,64 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -2765,7 +4110,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="26" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,7 +4120,9 @@
         <v>19</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="26"/>
+      <c r="E34" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -2784,7 +4131,9 @@
         <v>7</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -2793,70 +4142,86 @@
         <v>20</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="26"/>
+      <c r="E37" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="26"/>
+        <v>61</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="26"/>
+      <c r="E40" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="26"/>
+      <c r="E41" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="26"/>
+      <c r="E42" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="26"/>
+      <c r="E43" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -2877,11 +4242,13 @@
     <row r="46" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2891,7 +4258,7 @@
     </row>
     <row r="48" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2905,7 +4272,9 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -2914,7 +4283,9 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2923,52 +4294,64 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="26"/>
+      <c r="E52" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="26"/>
+      <c r="E53" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="26"/>
+      <c r="E54" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="26"/>
+      <c r="E55" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="26"/>
+      <c r="E56" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -2987,7 +4370,7 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="26" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,7 +4380,9 @@
         <v>19</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="26"/>
+      <c r="E59" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -3006,7 +4391,9 @@
         <v>7</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="26"/>
+      <c r="E60" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -3015,66 +4402,80 @@
         <v>20</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="26"/>
+      <c r="E61" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="26"/>
+      <c r="E62" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="9"/>
       <c r="D63" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="26"/>
+        <v>61</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="11"/>
       <c r="D64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="26"/>
+      <c r="E65" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="26"/>
+      <c r="E66" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="26"/>
+      <c r="E67" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3083,7 +4484,7 @@
     <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3093,33 +4494,39 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="26"/>
+      <c r="E70" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="26"/>
+      <c r="E71" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="26"/>
+      <c r="E72" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3128,7 +4535,7 @@
     <row r="74" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3141,16 +4548,20 @@
         <v>14</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="26"/>
+      <c r="E75" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="26"/>
+      <c r="E76" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -3160,16 +4571,18 @@
     </row>
     <row r="78" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="26"/>
+      <c r="E78" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3183,12 +4596,14 @@
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="26"/>
+      <c r="E80" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3201,93 +4616,113 @@
         <v>13</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="26"/>
+      <c r="E82" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="26"/>
+      <c r="E83" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="26"/>
+      <c r="E84" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="26"/>
+      <c r="E85" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86" s="3"/>
-      <c r="E86" s="26"/>
+      <c r="E86" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="26"/>
+      <c r="E87" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D88" s="3"/>
-      <c r="E88" s="26"/>
+      <c r="E88" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="26"/>
+      <c r="E89" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="26"/>
+      <c r="E90" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="26"/>
+      <c r="E91" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
@@ -3300,7 +4735,9 @@
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="26"/>
+      <c r="E93" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -3309,21 +4746,25 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="26"/>
+      <c r="E94" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="26"/>
+      <c r="E95" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3336,21 +4777,25 @@
         <v>13</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="26"/>
+      <c r="E97" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="26"/>
+      <c r="E98" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3359,7 +4804,7 @@
     <row r="100" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3372,16 +4817,20 @@
         <v>14</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="26"/>
+      <c r="E101" s="26" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="26"/>
+      <c r="E102" s="26" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -3414,13 +4863,15 @@
         <v>25</v>
       </c>
       <c r="D106" s="35"/>
-      <c r="E106" s="26"/>
+      <c r="E106" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" s="37"/>
       <c r="E107" s="38"/>
@@ -3428,11 +4879,13 @@
     <row r="108" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="26"/>
+      <c r="E108" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
@@ -3459,7 +4912,9 @@
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="26"/>
+      <c r="E111" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="39albN9hkHDyRoaNG41z3PPHvRPv9KRg0rKYeYLaebCurAbphIYVDcPASCe4Zd7YzT8RCUsw52aWKikhALL3fQ==" saltValue="6yqTepq9XVMKTbYUFuDVDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -3468,231 +4923,594 @@
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="E11 E108 E106">
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="187" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="193" priority="188" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="66">
+    <cfRule type="expression" dxfId="192" priority="189">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="184" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="190" priority="185" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E12)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="189" priority="186">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="181" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="187" priority="182" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E13)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="186" priority="183">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="178" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="184" priority="179" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="57">
-      <formula>$E$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E17)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
-      <formula>$E$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E21">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="183" priority="180">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="169" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="175" priority="170" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="174" priority="171">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="173" priority="166" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="172" priority="167" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="171" priority="168">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E43">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+  <conditionalFormatting sqref="E33 E41:E43">
+    <cfRule type="cellIs" dxfId="170" priority="163" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="169" priority="164" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="168" priority="165">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="160" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="166" priority="161" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="165" priority="162">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E56">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="157" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="94" priority="158" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E49)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>$E$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E67">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E58)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33">
-      <formula>$E$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70:E72">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E70)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>$E$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E76">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E75)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="93" priority="159">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="145" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="154" priority="146" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E78)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="153" priority="147">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="cellIs" dxfId="143" priority="133" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="134" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="135">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101:E102">
+    <cfRule type="cellIs" dxfId="140" priority="130" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E101)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="132">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="137" priority="124" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="125" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E111)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="126">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="134" priority="121" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E27)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="123">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="131" priority="118" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="119" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E28)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="120">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="128" priority="115" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="116" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="117">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="125" priority="112" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="113" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E30)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="114">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="122" priority="109" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E31)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="111">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="119" priority="106" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="107" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E34)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="108">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="116" priority="103" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="104" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E35)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="105">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="113" priority="100" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="101" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E36)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="102">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="110" priority="97" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="98" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E37)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="99">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="107" priority="94" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="95" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E38)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="96">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="104" priority="91" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="92" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E39)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="93">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="101" priority="88" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E40)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="90">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E58)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="87">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E59)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="84">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E60)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="81">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E61)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="78">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E62)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="75">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="71" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E63)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="72">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E64)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="69">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="65" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E65)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="66">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E66)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="63">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="59" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E67)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="60">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E70)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="57">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E71)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="54">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E72)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="51">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E75)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="48">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E76)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="45">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E80)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="45" priority="42">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E91">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E82)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E95">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="36">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="33">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="24">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="21">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E90)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="15">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E91)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>$E$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E93)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E97)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="OUI">
+      <formula>NOT(ISERROR(SEARCH("OUI",E95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101:E102">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E101)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$E$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NON"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OUI">
-      <formula>NOT(ISERROR(SEARCH("OUI",E111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OUI",E94)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$E$7</formula>

--- a/RICATTE_SUBLET.xlsx
+++ b/RICATTE_SUBLET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Clement\IUT\S2\IHM\Lazarus work\GestionScolaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C0C4A-8E4D-4F26-8785-4A5B9A579BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403BD5AC-598C-4DDD-A64B-B7090FF1AB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,351 +1301,21 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="195">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="162">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3803,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3822,12 +3492,12 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,7 +3615,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3965,7 +3635,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3976,7 +3646,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3987,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4721,11 +4391,11 @@
     </row>
     <row r="92" spans="1:5" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="27"/>
     </row>
     <row r="93" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4818,7 +4488,7 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,7 +4499,7 @@
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,563 +4593,563 @@
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="E11 E108 E106">
-    <cfRule type="cellIs" dxfId="194" priority="187" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="188" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="188" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="189">
+    <cfRule type="expression" dxfId="159" priority="189">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="191" priority="184" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="185" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="158" priority="184" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="185" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E12)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="186">
+    <cfRule type="expression" dxfId="156" priority="186">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="188" priority="181" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="182" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="155" priority="181" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="182" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E13)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="183">
+    <cfRule type="expression" dxfId="153" priority="183">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="185" priority="178" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="179" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="152" priority="178" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="179" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="180">
+    <cfRule type="expression" dxfId="150" priority="180">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="176" priority="169" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="170" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="149" priority="169" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="170" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="171">
+    <cfRule type="expression" dxfId="147" priority="171">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="173" priority="166" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="167" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="167" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="168">
+    <cfRule type="expression" dxfId="144" priority="168">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33 E41:E43">
-    <cfRule type="cellIs" dxfId="170" priority="163" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="164" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="143" priority="163" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="164" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="165">
+    <cfRule type="expression" dxfId="141" priority="165">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="167" priority="160" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="161" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="140" priority="160" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="161" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="162">
+    <cfRule type="expression" dxfId="138" priority="162">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E56">
-    <cfRule type="cellIs" dxfId="95" priority="157" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="158" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="137" priority="157" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="158" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E49)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="159">
+    <cfRule type="expression" dxfId="135" priority="159">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="155" priority="145" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="146" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="134" priority="145" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E78)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="147">
+    <cfRule type="expression" dxfId="132" priority="147">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E98">
-    <cfRule type="cellIs" dxfId="143" priority="133" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="134" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="134" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E97)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="135">
+    <cfRule type="expression" dxfId="129" priority="135">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101:E102">
-    <cfRule type="cellIs" dxfId="140" priority="130" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E101)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="132">
+    <cfRule type="expression" dxfId="126" priority="132">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="137" priority="124" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="125" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E111)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="126">
+    <cfRule type="expression" dxfId="123" priority="126">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="134" priority="121" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="123">
+    <cfRule type="expression" dxfId="120" priority="123">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="131" priority="118" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="119" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="120">
+    <cfRule type="expression" dxfId="117" priority="120">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="128" priority="115" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="116" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="117">
+    <cfRule type="expression" dxfId="114" priority="117">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="125" priority="112" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="113" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E30)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="114">
+    <cfRule type="expression" dxfId="111" priority="114">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="122" priority="109" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E31)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="111">
+    <cfRule type="expression" dxfId="108" priority="111">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="119" priority="106" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="107" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="108">
+    <cfRule type="expression" dxfId="105" priority="108">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="116" priority="103" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="104" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="105">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="113" priority="100" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="101" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E36)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="102">
+    <cfRule type="expression" dxfId="99" priority="102">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="110" priority="97" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="98" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E37)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="99">
+    <cfRule type="expression" dxfId="96" priority="99">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="107" priority="94" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="95" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="96">
+    <cfRule type="expression" dxfId="93" priority="96">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="104" priority="91" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="92" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="93">
+    <cfRule type="expression" dxfId="90" priority="93">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="101" priority="88" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="90">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="87">
+    <cfRule type="expression" dxfId="84" priority="87">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="84">
+    <cfRule type="expression" dxfId="81" priority="84">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E60)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="81">
+    <cfRule type="expression" dxfId="78" priority="81">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E61)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="78">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E62)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="75">
+    <cfRule type="expression" dxfId="72" priority="75">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="71" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E63)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="72">
+    <cfRule type="expression" dxfId="69" priority="72">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E64)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="69">
+    <cfRule type="expression" dxfId="66" priority="69">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="65" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E65)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E66)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63">
+    <cfRule type="expression" dxfId="60" priority="63">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="59" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E67)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="60">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E70)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="57">
+    <cfRule type="expression" dxfId="54" priority="57">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E71)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="54">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E72)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E75)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E76)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E80)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E82)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E83)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E84)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E85)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E86)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E87)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E88)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E89)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E90)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
-      <formula>"NON"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="OUI">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"NON"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",E91)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$E$7</formula>
     </cfRule>
   </conditionalFormatting>
